--- a/input/RESULTS5-2A-CSE-0.861.1.xlsx
+++ b/input/RESULTS5-2A-CSE-0.861.1.xlsx
@@ -1938,7 +1938,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1946,7 +1946,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2026,19 +2026,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2233,11 +2233,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -4795,31 +4795,41 @@
       <c r="B155" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="80"/>
+      <c r="C155" s="80" t="n">
+        <v>1662.52776234358</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C156" s="83"/>
+      <c r="C156" s="83" t="n">
+        <v>399.047475991387</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C157" s="83"/>
+      <c r="C157" s="83" t="n">
+        <v>1026.98739169967</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C158" s="83"/>
+      <c r="C158" s="83" t="n">
+        <v>1316.91617996189</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C159" s="85"/>
+      <c r="C159" s="85" t="n">
+        <v>903.066498828377</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="38"/>
@@ -4843,19 +4853,25 @@
       <c r="B163" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C163" s="80"/>
+      <c r="C163" s="80" t="n">
+        <v>825.519365812517</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C164" s="83"/>
+      <c r="C164" s="83" t="n">
+        <v>501.313583591347</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C165" s="83"/>
+      <c r="C165" s="83" t="n">
+        <v>987.818245667505</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="47" t="s">
@@ -4884,7 +4900,9 @@
       <c r="B170" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C170" s="80"/>
+      <c r="C170" s="80" t="n">
+        <v>665.260934557967</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="47" t="s">

--- a/input/RESULTS5-2A-CSE-0.861.1.xlsx
+++ b/input/RESULTS5-2A-CSE-0.861.1.xlsx
@@ -2233,11 +2233,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -7819,7 +7819,9 @@
       <c r="B330" s="40" t="n">
         <v>-50</v>
       </c>
-      <c r="C330" s="84"/>
+      <c r="C330" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D330" s="13"/>
       <c r="E330" s="13"/>
     </row>
@@ -7827,7 +7829,9 @@
       <c r="B331" s="40" t="n">
         <v>-49</v>
       </c>
-      <c r="C331" s="84"/>
+      <c r="C331" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D331" s="13"/>
       <c r="E331" s="13"/>
     </row>
@@ -7835,7 +7839,9 @@
       <c r="B332" s="40" t="n">
         <v>-48</v>
       </c>
-      <c r="C332" s="84"/>
+      <c r="C332" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
     </row>
@@ -7843,7 +7849,9 @@
       <c r="B333" s="40" t="n">
         <v>-47</v>
       </c>
-      <c r="C333" s="84"/>
+      <c r="C333" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D333" s="13"/>
       <c r="E333" s="13"/>
     </row>
@@ -7851,7 +7859,9 @@
       <c r="B334" s="40" t="n">
         <v>-46</v>
       </c>
-      <c r="C334" s="84"/>
+      <c r="C334" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D334" s="13"/>
       <c r="E334" s="13"/>
     </row>
@@ -7859,7 +7869,9 @@
       <c r="B335" s="40" t="n">
         <v>-45</v>
       </c>
-      <c r="C335" s="84"/>
+      <c r="C335" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D335" s="13"/>
       <c r="E335" s="13"/>
     </row>
@@ -7867,7 +7879,9 @@
       <c r="B336" s="40" t="n">
         <v>-44</v>
       </c>
-      <c r="C336" s="84"/>
+      <c r="C336" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D336" s="13"/>
       <c r="E336" s="13"/>
     </row>
@@ -7875,7 +7889,9 @@
       <c r="B337" s="40" t="n">
         <v>-43</v>
       </c>
-      <c r="C337" s="84"/>
+      <c r="C337" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D337" s="13"/>
       <c r="E337" s="13"/>
     </row>
@@ -7883,7 +7899,9 @@
       <c r="B338" s="40" t="n">
         <v>-42</v>
       </c>
-      <c r="C338" s="84"/>
+      <c r="C338" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D338" s="13"/>
       <c r="E338" s="13"/>
     </row>
@@ -7891,7 +7909,9 @@
       <c r="B339" s="40" t="n">
         <v>-41</v>
       </c>
-      <c r="C339" s="84"/>
+      <c r="C339" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D339" s="13"/>
       <c r="E339" s="13"/>
     </row>
@@ -7899,7 +7919,9 @@
       <c r="B340" s="40" t="n">
         <v>-40</v>
       </c>
-      <c r="C340" s="84"/>
+      <c r="C340" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D340" s="13"/>
       <c r="E340" s="13"/>
     </row>
@@ -7907,7 +7929,9 @@
       <c r="B341" s="40" t="n">
         <v>-39</v>
       </c>
-      <c r="C341" s="84"/>
+      <c r="C341" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D341" s="13"/>
       <c r="E341" s="13"/>
     </row>
@@ -7915,7 +7939,9 @@
       <c r="B342" s="40" t="n">
         <v>-38</v>
       </c>
-      <c r="C342" s="84"/>
+      <c r="C342" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D342" s="13"/>
       <c r="E342" s="13"/>
     </row>
@@ -7923,7 +7949,9 @@
       <c r="B343" s="40" t="n">
         <v>-37</v>
       </c>
-      <c r="C343" s="84"/>
+      <c r="C343" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D343" s="13"/>
       <c r="E343" s="13"/>
     </row>
@@ -7931,7 +7959,9 @@
       <c r="B344" s="40" t="n">
         <v>-36</v>
       </c>
-      <c r="C344" s="84"/>
+      <c r="C344" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D344" s="13"/>
       <c r="E344" s="13"/>
     </row>
@@ -7939,7 +7969,9 @@
       <c r="B345" s="40" t="n">
         <v>-35</v>
       </c>
-      <c r="C345" s="84"/>
+      <c r="C345" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D345" s="13"/>
       <c r="E345" s="13"/>
     </row>
@@ -7947,7 +7979,9 @@
       <c r="B346" s="40" t="n">
         <v>-34</v>
       </c>
-      <c r="C346" s="84"/>
+      <c r="C346" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D346" s="13"/>
       <c r="E346" s="13"/>
     </row>
@@ -7955,7 +7989,9 @@
       <c r="B347" s="40" t="n">
         <v>-33</v>
       </c>
-      <c r="C347" s="84"/>
+      <c r="C347" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D347" s="13"/>
       <c r="E347" s="13"/>
     </row>
@@ -7963,7 +7999,9 @@
       <c r="B348" s="40" t="n">
         <v>-32</v>
       </c>
-      <c r="C348" s="84"/>
+      <c r="C348" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
@@ -7971,7 +8009,9 @@
       <c r="B349" s="40" t="n">
         <v>-31</v>
       </c>
-      <c r="C349" s="84"/>
+      <c r="C349" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
     </row>
@@ -7979,7 +8019,9 @@
       <c r="B350" s="40" t="n">
         <v>-30</v>
       </c>
-      <c r="C350" s="84"/>
+      <c r="C350" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D350" s="13"/>
       <c r="E350" s="13"/>
     </row>
@@ -7987,7 +8029,9 @@
       <c r="B351" s="40" t="n">
         <v>-29</v>
       </c>
-      <c r="C351" s="84"/>
+      <c r="C351" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D351" s="13"/>
       <c r="E351" s="13"/>
     </row>
@@ -7995,7 +8039,9 @@
       <c r="B352" s="40" t="n">
         <v>-28</v>
       </c>
-      <c r="C352" s="84"/>
+      <c r="C352" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D352" s="13"/>
       <c r="E352" s="13"/>
     </row>
@@ -8003,7 +8049,9 @@
       <c r="B353" s="40" t="n">
         <v>-27</v>
       </c>
-      <c r="C353" s="84"/>
+      <c r="C353" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D353" s="13"/>
       <c r="E353" s="13"/>
     </row>
@@ -8011,7 +8059,9 @@
       <c r="B354" s="40" t="n">
         <v>-26</v>
       </c>
-      <c r="C354" s="84"/>
+      <c r="C354" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D354" s="13"/>
       <c r="E354" s="13"/>
     </row>
@@ -8019,7 +8069,9 @@
       <c r="B355" s="40" t="n">
         <v>-25</v>
       </c>
-      <c r="C355" s="84"/>
+      <c r="C355" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D355" s="13"/>
       <c r="E355" s="13"/>
     </row>
@@ -8027,7 +8079,9 @@
       <c r="B356" s="40" t="n">
         <v>-24</v>
       </c>
-      <c r="C356" s="84"/>
+      <c r="C356" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D356" s="13"/>
       <c r="E356" s="13"/>
     </row>
@@ -8035,7 +8089,9 @@
       <c r="B357" s="40" t="n">
         <v>-23</v>
       </c>
-      <c r="C357" s="84"/>
+      <c r="C357" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D357" s="13"/>
       <c r="E357" s="13"/>
     </row>
@@ -8043,7 +8099,9 @@
       <c r="B358" s="40" t="n">
         <v>-22</v>
       </c>
-      <c r="C358" s="84"/>
+      <c r="C358" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D358" s="13"/>
       <c r="E358" s="13"/>
     </row>
@@ -8051,7 +8109,9 @@
       <c r="B359" s="40" t="n">
         <v>-21</v>
       </c>
-      <c r="C359" s="84"/>
+      <c r="C359" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D359" s="13"/>
       <c r="E359" s="13"/>
     </row>
@@ -8059,7 +8119,9 @@
       <c r="B360" s="40" t="n">
         <v>-20</v>
       </c>
-      <c r="C360" s="84"/>
+      <c r="C360" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D360" s="13"/>
       <c r="E360" s="13"/>
     </row>
@@ -8067,7 +8129,9 @@
       <c r="B361" s="40" t="n">
         <v>-19</v>
       </c>
-      <c r="C361" s="84"/>
+      <c r="C361" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D361" s="13"/>
       <c r="E361" s="13"/>
     </row>
@@ -8075,7 +8139,9 @@
       <c r="B362" s="40" t="n">
         <v>-18</v>
       </c>
-      <c r="C362" s="84"/>
+      <c r="C362" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D362" s="13"/>
       <c r="E362" s="13"/>
     </row>
@@ -8083,7 +8149,9 @@
       <c r="B363" s="40" t="n">
         <v>-17</v>
       </c>
-      <c r="C363" s="84"/>
+      <c r="C363" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D363" s="13"/>
       <c r="E363" s="13"/>
     </row>
@@ -8091,7 +8159,9 @@
       <c r="B364" s="40" t="n">
         <v>-16</v>
       </c>
-      <c r="C364" s="84"/>
+      <c r="C364" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D364" s="13"/>
       <c r="E364" s="13"/>
     </row>
@@ -8099,7 +8169,9 @@
       <c r="B365" s="40" t="n">
         <v>-15</v>
       </c>
-      <c r="C365" s="84"/>
+      <c r="C365" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D365" s="13"/>
       <c r="E365" s="13"/>
     </row>
@@ -8107,7 +8179,9 @@
       <c r="B366" s="40" t="n">
         <v>-14</v>
       </c>
-      <c r="C366" s="84"/>
+      <c r="C366" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D366" s="13"/>
       <c r="E366" s="13"/>
     </row>
@@ -8115,7 +8189,9 @@
       <c r="B367" s="40" t="n">
         <v>-13</v>
       </c>
-      <c r="C367" s="84"/>
+      <c r="C367" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D367" s="13"/>
       <c r="E367" s="13"/>
     </row>
@@ -8123,7 +8199,9 @@
       <c r="B368" s="40" t="n">
         <v>-12</v>
       </c>
-      <c r="C368" s="84"/>
+      <c r="C368" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
     </row>
@@ -8131,7 +8209,9 @@
       <c r="B369" s="40" t="n">
         <v>-11</v>
       </c>
-      <c r="C369" s="84"/>
+      <c r="C369" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
     </row>
@@ -8139,7 +8219,9 @@
       <c r="B370" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="C370" s="84"/>
+      <c r="C370" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
@@ -8147,7 +8229,9 @@
       <c r="B371" s="40" t="n">
         <v>-9</v>
       </c>
-      <c r="C371" s="84"/>
+      <c r="C371" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
     </row>
@@ -8155,7 +8239,9 @@
       <c r="B372" s="40" t="n">
         <v>-8</v>
       </c>
-      <c r="C372" s="84"/>
+      <c r="C372" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D372" s="13"/>
       <c r="E372" s="13"/>
     </row>
@@ -8163,7 +8249,9 @@
       <c r="B373" s="40" t="n">
         <v>-7</v>
       </c>
-      <c r="C373" s="84"/>
+      <c r="C373" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D373" s="13"/>
       <c r="E373" s="13"/>
     </row>
@@ -8171,7 +8259,9 @@
       <c r="B374" s="40" t="n">
         <v>-6</v>
       </c>
-      <c r="C374" s="84"/>
+      <c r="C374" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D374" s="13"/>
       <c r="E374" s="13"/>
     </row>
@@ -8179,7 +8269,9 @@
       <c r="B375" s="40" t="n">
         <v>-5</v>
       </c>
-      <c r="C375" s="84"/>
+      <c r="C375" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D375" s="13"/>
       <c r="E375" s="13"/>
     </row>
@@ -8187,7 +8279,9 @@
       <c r="B376" s="40" t="n">
         <v>-4</v>
       </c>
-      <c r="C376" s="84"/>
+      <c r="C376" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D376" s="13"/>
       <c r="E376" s="13"/>
     </row>
@@ -8195,7 +8289,9 @@
       <c r="B377" s="40" t="n">
         <v>-3</v>
       </c>
-      <c r="C377" s="84"/>
+      <c r="C377" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D377" s="13"/>
       <c r="E377" s="13"/>
     </row>
@@ -8203,7 +8299,9 @@
       <c r="B378" s="40" t="n">
         <v>-2</v>
       </c>
-      <c r="C378" s="84"/>
+      <c r="C378" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D378" s="13"/>
       <c r="E378" s="13"/>
     </row>
@@ -8211,7 +8309,9 @@
       <c r="B379" s="40" t="n">
         <v>-1</v>
       </c>
-      <c r="C379" s="84"/>
+      <c r="C379" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D379" s="13"/>
       <c r="E379" s="13"/>
     </row>
@@ -8219,7 +8319,9 @@
       <c r="B380" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C380" s="84"/>
+      <c r="C380" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D380" s="13"/>
       <c r="E380" s="13"/>
     </row>
@@ -8227,7 +8329,9 @@
       <c r="B381" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C381" s="84"/>
+      <c r="C381" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D381" s="13"/>
       <c r="E381" s="13"/>
     </row>
@@ -8235,7 +8339,9 @@
       <c r="B382" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C382" s="84"/>
+      <c r="C382" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
     </row>
@@ -8243,7 +8349,9 @@
       <c r="B383" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C383" s="84"/>
+      <c r="C383" s="84" t="n">
+        <v>7</v>
+      </c>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
     </row>
@@ -8251,7 +8359,9 @@
       <c r="B384" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="C384" s="84"/>
+      <c r="C384" s="84" t="n">
+        <v>23</v>
+      </c>
       <c r="D384" s="13"/>
       <c r="E384" s="13"/>
     </row>
@@ -8259,7 +8369,9 @@
       <c r="B385" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="C385" s="84"/>
+      <c r="C385" s="84" t="n">
+        <v>25</v>
+      </c>
       <c r="D385" s="13"/>
       <c r="E385" s="13"/>
     </row>
@@ -8267,7 +8379,9 @@
       <c r="B386" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="C386" s="84"/>
+      <c r="C386" s="84" t="n">
+        <v>36</v>
+      </c>
       <c r="D386" s="13"/>
       <c r="E386" s="13"/>
     </row>
@@ -8275,7 +8389,9 @@
       <c r="B387" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="C387" s="84"/>
+      <c r="C387" s="84" t="n">
+        <v>44</v>
+      </c>
       <c r="D387" s="13"/>
       <c r="E387" s="13"/>
     </row>
@@ -8283,7 +8399,9 @@
       <c r="B388" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C388" s="84"/>
+      <c r="C388" s="84" t="n">
+        <v>65</v>
+      </c>
       <c r="D388" s="13"/>
       <c r="E388" s="13"/>
     </row>
@@ -8291,7 +8409,9 @@
       <c r="B389" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C389" s="84"/>
+      <c r="C389" s="84" t="n">
+        <v>74</v>
+      </c>
       <c r="D389" s="13"/>
       <c r="E389" s="13"/>
     </row>
@@ -8299,7 +8419,9 @@
       <c r="B390" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C390" s="84"/>
+      <c r="C390" s="84" t="n">
+        <v>98</v>
+      </c>
       <c r="D390" s="13"/>
       <c r="E390" s="13"/>
     </row>
@@ -8307,7 +8429,9 @@
       <c r="B391" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="C391" s="84"/>
+      <c r="C391" s="84" t="n">
+        <v>117</v>
+      </c>
       <c r="D391" s="13"/>
       <c r="E391" s="13"/>
     </row>
@@ -8315,7 +8439,9 @@
       <c r="B392" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="C392" s="84"/>
+      <c r="C392" s="84" t="n">
+        <v>148</v>
+      </c>
       <c r="D392" s="13"/>
       <c r="E392" s="13"/>
     </row>
@@ -8323,7 +8449,9 @@
       <c r="B393" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="C393" s="84"/>
+      <c r="C393" s="84" t="n">
+        <v>211</v>
+      </c>
       <c r="D393" s="13"/>
       <c r="E393" s="13"/>
     </row>
@@ -8331,7 +8459,9 @@
       <c r="B394" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="C394" s="84"/>
+      <c r="C394" s="84" t="n">
+        <v>206</v>
+      </c>
       <c r="D394" s="13"/>
       <c r="E394" s="13"/>
     </row>
@@ -8339,7 +8469,9 @@
       <c r="B395" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="C395" s="84"/>
+      <c r="C395" s="84" t="n">
+        <v>208</v>
+      </c>
       <c r="D395" s="13"/>
       <c r="E395" s="13"/>
     </row>
@@ -8347,7 +8479,9 @@
       <c r="B396" s="40" t="n">
         <v>16</v>
       </c>
-      <c r="C396" s="84"/>
+      <c r="C396" s="84" t="n">
+        <v>255</v>
+      </c>
       <c r="D396" s="13"/>
       <c r="E396" s="13"/>
     </row>
@@ -8355,7 +8489,9 @@
       <c r="B397" s="40" t="n">
         <v>17</v>
       </c>
-      <c r="C397" s="84"/>
+      <c r="C397" s="84" t="n">
+        <v>288</v>
+      </c>
       <c r="D397" s="13"/>
       <c r="E397" s="13"/>
     </row>
@@ -8363,7 +8499,9 @@
       <c r="B398" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="C398" s="84"/>
+      <c r="C398" s="84" t="n">
+        <v>253</v>
+      </c>
       <c r="D398" s="13"/>
       <c r="E398" s="13"/>
     </row>
@@ -8371,7 +8509,9 @@
       <c r="B399" s="40" t="n">
         <v>19</v>
       </c>
-      <c r="C399" s="84"/>
+      <c r="C399" s="84" t="n">
+        <v>329</v>
+      </c>
       <c r="D399" s="13"/>
       <c r="E399" s="13"/>
     </row>
@@ -8379,7 +8519,9 @@
       <c r="B400" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="C400" s="84"/>
+      <c r="C400" s="84" t="n">
+        <v>365</v>
+      </c>
       <c r="D400" s="13"/>
       <c r="E400" s="13"/>
     </row>
@@ -8387,7 +8529,9 @@
       <c r="B401" s="40" t="n">
         <v>21</v>
       </c>
-      <c r="C401" s="84"/>
+      <c r="C401" s="84" t="n">
+        <v>323</v>
+      </c>
       <c r="D401" s="13"/>
       <c r="E401" s="13"/>
     </row>
@@ -8395,7 +8539,9 @@
       <c r="B402" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="C402" s="84"/>
+      <c r="C402" s="84" t="n">
+        <v>327</v>
+      </c>
       <c r="D402" s="13"/>
       <c r="E402" s="13"/>
     </row>
@@ -8403,7 +8549,9 @@
       <c r="B403" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="C403" s="84"/>
+      <c r="C403" s="84" t="n">
+        <v>316</v>
+      </c>
       <c r="D403" s="13"/>
       <c r="E403" s="13"/>
     </row>
@@ -8411,7 +8559,9 @@
       <c r="B404" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="C404" s="84"/>
+      <c r="C404" s="84" t="n">
+        <v>283</v>
+      </c>
       <c r="D404" s="13"/>
       <c r="E404" s="13"/>
     </row>
@@ -8419,7 +8569,9 @@
       <c r="B405" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="C405" s="84"/>
+      <c r="C405" s="84" t="n">
+        <v>286</v>
+      </c>
       <c r="D405" s="13"/>
       <c r="E405" s="13"/>
     </row>
@@ -8427,7 +8579,9 @@
       <c r="B406" s="40" t="n">
         <v>26</v>
       </c>
-      <c r="C406" s="84"/>
+      <c r="C406" s="84" t="n">
+        <v>299</v>
+      </c>
       <c r="D406" s="13"/>
       <c r="E406" s="13"/>
     </row>
@@ -8435,7 +8589,9 @@
       <c r="B407" s="40" t="n">
         <v>27</v>
       </c>
-      <c r="C407" s="84"/>
+      <c r="C407" s="84" t="n">
+        <v>287</v>
+      </c>
       <c r="D407" s="13"/>
       <c r="E407" s="13"/>
     </row>
@@ -8443,7 +8599,9 @@
       <c r="B408" s="40" t="n">
         <v>28</v>
       </c>
-      <c r="C408" s="84"/>
+      <c r="C408" s="84" t="n">
+        <v>319</v>
+      </c>
       <c r="D408" s="13"/>
       <c r="E408" s="13"/>
     </row>
@@ -8451,7 +8609,9 @@
       <c r="B409" s="40" t="n">
         <v>29</v>
       </c>
-      <c r="C409" s="84"/>
+      <c r="C409" s="84" t="n">
+        <v>340</v>
+      </c>
       <c r="D409" s="13"/>
       <c r="E409" s="13"/>
     </row>
@@ -8459,7 +8619,9 @@
       <c r="B410" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="C410" s="84"/>
+      <c r="C410" s="84" t="n">
+        <v>362</v>
+      </c>
       <c r="D410" s="13"/>
       <c r="E410" s="13"/>
     </row>
@@ -8467,7 +8629,9 @@
       <c r="B411" s="40" t="n">
         <v>31</v>
       </c>
-      <c r="C411" s="84"/>
+      <c r="C411" s="84" t="n">
+        <v>417</v>
+      </c>
       <c r="D411" s="13"/>
       <c r="E411" s="13"/>
     </row>
@@ -8475,7 +8639,9 @@
       <c r="B412" s="40" t="n">
         <v>32</v>
       </c>
-      <c r="C412" s="84"/>
+      <c r="C412" s="84" t="n">
+        <v>429</v>
+      </c>
       <c r="D412" s="13"/>
       <c r="E412" s="13"/>
     </row>
@@ -8483,7 +8649,9 @@
       <c r="B413" s="40" t="n">
         <v>33</v>
       </c>
-      <c r="C413" s="84"/>
+      <c r="C413" s="84" t="n">
+        <v>417</v>
+      </c>
       <c r="D413" s="13"/>
       <c r="E413" s="13"/>
     </row>
@@ -8491,7 +8659,9 @@
       <c r="B414" s="40" t="n">
         <v>34</v>
       </c>
-      <c r="C414" s="84"/>
+      <c r="C414" s="84" t="n">
+        <v>390</v>
+      </c>
       <c r="D414" s="13"/>
       <c r="E414" s="13"/>
     </row>
@@ -8499,7 +8669,9 @@
       <c r="B415" s="40" t="n">
         <v>35</v>
       </c>
-      <c r="C415" s="84"/>
+      <c r="C415" s="84" t="n">
+        <v>335</v>
+      </c>
       <c r="D415" s="13"/>
       <c r="E415" s="13"/>
     </row>
@@ -8507,7 +8679,9 @@
       <c r="B416" s="40" t="n">
         <v>36</v>
       </c>
-      <c r="C416" s="84"/>
+      <c r="C416" s="84" t="n">
+        <v>272</v>
+      </c>
       <c r="D416" s="13"/>
       <c r="E416" s="13"/>
     </row>
@@ -8515,7 +8689,9 @@
       <c r="B417" s="40" t="n">
         <v>37</v>
       </c>
-      <c r="C417" s="84"/>
+      <c r="C417" s="84" t="n">
+        <v>210</v>
+      </c>
       <c r="D417" s="13"/>
       <c r="E417" s="13"/>
     </row>
@@ -8523,7 +8699,9 @@
       <c r="B418" s="40" t="n">
         <v>38</v>
       </c>
-      <c r="C418" s="84"/>
+      <c r="C418" s="84" t="n">
+        <v>150</v>
+      </c>
       <c r="D418" s="13"/>
       <c r="E418" s="13"/>
     </row>
@@ -8531,7 +8709,9 @@
       <c r="B419" s="40" t="n">
         <v>39</v>
       </c>
-      <c r="C419" s="84"/>
+      <c r="C419" s="84" t="n">
+        <v>77</v>
+      </c>
       <c r="D419" s="13"/>
       <c r="E419" s="13"/>
     </row>
@@ -8539,7 +8719,9 @@
       <c r="B420" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="C420" s="84"/>
+      <c r="C420" s="84" t="n">
+        <v>60</v>
+      </c>
       <c r="D420" s="13"/>
       <c r="E420" s="13"/>
     </row>
@@ -8547,7 +8729,9 @@
       <c r="B421" s="40" t="n">
         <v>41</v>
       </c>
-      <c r="C421" s="84"/>
+      <c r="C421" s="84" t="n">
+        <v>40</v>
+      </c>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
     </row>
@@ -8555,7 +8739,9 @@
       <c r="B422" s="40" t="n">
         <v>42</v>
       </c>
-      <c r="C422" s="84"/>
+      <c r="C422" s="84" t="n">
+        <v>30</v>
+      </c>
       <c r="D422" s="13"/>
       <c r="E422" s="13"/>
     </row>
@@ -8563,7 +8749,9 @@
       <c r="B423" s="40" t="n">
         <v>43</v>
       </c>
-      <c r="C423" s="84"/>
+      <c r="C423" s="84" t="n">
+        <v>21</v>
+      </c>
       <c r="D423" s="13"/>
       <c r="E423" s="13"/>
     </row>
@@ -8571,7 +8759,9 @@
       <c r="B424" s="40" t="n">
         <v>44</v>
       </c>
-      <c r="C424" s="84"/>
+      <c r="C424" s="84" t="n">
+        <v>11</v>
+      </c>
       <c r="D424" s="13"/>
       <c r="E424" s="13"/>
     </row>
@@ -8579,7 +8769,9 @@
       <c r="B425" s="40" t="n">
         <v>45</v>
       </c>
-      <c r="C425" s="84"/>
+      <c r="C425" s="84" t="n">
+        <v>3</v>
+      </c>
       <c r="D425" s="13"/>
       <c r="E425" s="13"/>
     </row>
@@ -8587,7 +8779,9 @@
       <c r="B426" s="40" t="n">
         <v>46</v>
       </c>
-      <c r="C426" s="84"/>
+      <c r="C426" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D426" s="13"/>
       <c r="E426" s="13"/>
     </row>
@@ -8595,7 +8789,9 @@
       <c r="B427" s="40" t="n">
         <v>47</v>
       </c>
-      <c r="C427" s="84"/>
+      <c r="C427" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D427" s="13"/>
       <c r="E427" s="13"/>
     </row>
@@ -8603,7 +8799,9 @@
       <c r="B428" s="40" t="n">
         <v>48</v>
       </c>
-      <c r="C428" s="84"/>
+      <c r="C428" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D428" s="13"/>
       <c r="E428" s="13"/>
     </row>
@@ -8611,7 +8809,9 @@
       <c r="B429" s="40" t="n">
         <v>49</v>
       </c>
-      <c r="C429" s="84"/>
+      <c r="C429" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D429" s="13"/>
       <c r="E429" s="13"/>
     </row>
@@ -8619,7 +8819,9 @@
       <c r="B430" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="C430" s="84"/>
+      <c r="C430" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D430" s="13"/>
       <c r="E430" s="13"/>
     </row>
@@ -8627,7 +8829,9 @@
       <c r="B431" s="40" t="n">
         <v>51</v>
       </c>
-      <c r="C431" s="84"/>
+      <c r="C431" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D431" s="13"/>
       <c r="E431" s="13"/>
     </row>
@@ -8635,7 +8839,9 @@
       <c r="B432" s="40" t="n">
         <v>52</v>
       </c>
-      <c r="C432" s="84"/>
+      <c r="C432" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D432" s="13"/>
       <c r="E432" s="13"/>
     </row>
@@ -8643,7 +8849,9 @@
       <c r="B433" s="40" t="n">
         <v>53</v>
       </c>
-      <c r="C433" s="84"/>
+      <c r="C433" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D433" s="13"/>
       <c r="E433" s="13"/>
     </row>
@@ -8651,7 +8859,9 @@
       <c r="B434" s="40" t="n">
         <v>54</v>
       </c>
-      <c r="C434" s="84"/>
+      <c r="C434" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D434" s="13"/>
       <c r="E434" s="13"/>
     </row>
@@ -8659,7 +8869,9 @@
       <c r="B435" s="40" t="n">
         <v>55</v>
       </c>
-      <c r="C435" s="84"/>
+      <c r="C435" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D435" s="13"/>
       <c r="E435" s="13"/>
     </row>
@@ -8667,7 +8879,9 @@
       <c r="B436" s="40" t="n">
         <v>56</v>
       </c>
-      <c r="C436" s="84"/>
+      <c r="C436" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
     </row>
@@ -8675,7 +8889,9 @@
       <c r="B437" s="40" t="n">
         <v>57</v>
       </c>
-      <c r="C437" s="84"/>
+      <c r="C437" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D437" s="13"/>
       <c r="E437" s="13"/>
     </row>
@@ -8683,7 +8899,9 @@
       <c r="B438" s="40" t="n">
         <v>58</v>
       </c>
-      <c r="C438" s="84"/>
+      <c r="C438" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D438" s="13"/>
       <c r="E438" s="13"/>
     </row>
@@ -8691,7 +8909,9 @@
       <c r="B439" s="40" t="n">
         <v>59</v>
       </c>
-      <c r="C439" s="84"/>
+      <c r="C439" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D439" s="13"/>
       <c r="E439" s="13"/>
     </row>
@@ -8699,7 +8919,9 @@
       <c r="B440" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="C440" s="84"/>
+      <c r="C440" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D440" s="13"/>
       <c r="E440" s="13"/>
     </row>
@@ -8707,7 +8929,9 @@
       <c r="B441" s="40" t="n">
         <v>61</v>
       </c>
-      <c r="C441" s="84"/>
+      <c r="C441" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
     </row>
@@ -8715,7 +8939,9 @@
       <c r="B442" s="40" t="n">
         <v>62</v>
       </c>
-      <c r="C442" s="84"/>
+      <c r="C442" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D442" s="13"/>
       <c r="E442" s="13"/>
     </row>
@@ -8723,7 +8949,9 @@
       <c r="B443" s="40" t="n">
         <v>63</v>
       </c>
-      <c r="C443" s="84"/>
+      <c r="C443" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D443" s="13"/>
       <c r="E443" s="13"/>
     </row>
@@ -8731,7 +8959,9 @@
       <c r="B444" s="40" t="n">
         <v>64</v>
       </c>
-      <c r="C444" s="84"/>
+      <c r="C444" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D444" s="13"/>
       <c r="E444" s="13"/>
     </row>
@@ -8739,7 +8969,9 @@
       <c r="B445" s="40" t="n">
         <v>65</v>
       </c>
-      <c r="C445" s="84"/>
+      <c r="C445" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D445" s="13"/>
       <c r="E445" s="13"/>
     </row>
@@ -8747,7 +8979,9 @@
       <c r="B446" s="40" t="n">
         <v>66</v>
       </c>
-      <c r="C446" s="84"/>
+      <c r="C446" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D446" s="13"/>
       <c r="E446" s="13"/>
     </row>
@@ -8755,7 +8989,9 @@
       <c r="B447" s="40" t="n">
         <v>67</v>
       </c>
-      <c r="C447" s="84"/>
+      <c r="C447" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D447" s="13"/>
       <c r="E447" s="13"/>
     </row>
@@ -8763,7 +8999,9 @@
       <c r="B448" s="40" t="n">
         <v>68</v>
       </c>
-      <c r="C448" s="84"/>
+      <c r="C448" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D448" s="13"/>
       <c r="E448" s="13"/>
     </row>
@@ -8771,7 +9009,9 @@
       <c r="B449" s="40" t="n">
         <v>69</v>
       </c>
-      <c r="C449" s="84"/>
+      <c r="C449" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D449" s="13"/>
       <c r="E449" s="13"/>
     </row>
@@ -8779,7 +9019,9 @@
       <c r="B450" s="40" t="n">
         <v>70</v>
       </c>
-      <c r="C450" s="84"/>
+      <c r="C450" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D450" s="13"/>
       <c r="E450" s="13"/>
     </row>
@@ -8787,7 +9029,9 @@
       <c r="B451" s="40" t="n">
         <v>71</v>
       </c>
-      <c r="C451" s="84"/>
+      <c r="C451" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D451" s="13"/>
       <c r="E451" s="13"/>
     </row>
@@ -8795,7 +9039,9 @@
       <c r="B452" s="40" t="n">
         <v>72</v>
       </c>
-      <c r="C452" s="84"/>
+      <c r="C452" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D452" s="13"/>
       <c r="E452" s="13"/>
     </row>
@@ -8803,7 +9049,9 @@
       <c r="B453" s="40" t="n">
         <v>73</v>
       </c>
-      <c r="C453" s="84"/>
+      <c r="C453" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D453" s="13"/>
       <c r="E453" s="13"/>
     </row>
@@ -8811,7 +9059,9 @@
       <c r="B454" s="40" t="n">
         <v>74</v>
       </c>
-      <c r="C454" s="84"/>
+      <c r="C454" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D454" s="13"/>
       <c r="E454" s="13"/>
     </row>
@@ -8819,7 +9069,9 @@
       <c r="B455" s="40" t="n">
         <v>75</v>
       </c>
-      <c r="C455" s="84"/>
+      <c r="C455" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D455" s="13"/>
       <c r="E455" s="13"/>
     </row>
@@ -8827,7 +9079,9 @@
       <c r="B456" s="40" t="n">
         <v>76</v>
       </c>
-      <c r="C456" s="84"/>
+      <c r="C456" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D456" s="13"/>
       <c r="E456" s="13"/>
     </row>
@@ -8835,7 +9089,9 @@
       <c r="B457" s="40" t="n">
         <v>77</v>
       </c>
-      <c r="C457" s="84"/>
+      <c r="C457" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D457" s="13"/>
       <c r="E457" s="13"/>
     </row>
@@ -8843,7 +9099,9 @@
       <c r="B458" s="40" t="n">
         <v>78</v>
       </c>
-      <c r="C458" s="84"/>
+      <c r="C458" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D458" s="13"/>
       <c r="E458" s="13"/>
     </row>
@@ -8851,7 +9109,9 @@
       <c r="B459" s="40" t="n">
         <v>79</v>
       </c>
-      <c r="C459" s="84"/>
+      <c r="C459" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D459" s="13"/>
       <c r="E459" s="13"/>
     </row>
@@ -8859,7 +9119,9 @@
       <c r="B460" s="40" t="n">
         <v>80</v>
       </c>
-      <c r="C460" s="84"/>
+      <c r="C460" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D460" s="13"/>
       <c r="E460" s="13"/>
     </row>
@@ -8867,7 +9129,9 @@
       <c r="B461" s="40" t="n">
         <v>81</v>
       </c>
-      <c r="C461" s="84"/>
+      <c r="C461" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D461" s="13"/>
       <c r="E461" s="13"/>
     </row>
@@ -8875,7 +9139,9 @@
       <c r="B462" s="40" t="n">
         <v>82</v>
       </c>
-      <c r="C462" s="84"/>
+      <c r="C462" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D462" s="13"/>
       <c r="E462" s="13"/>
     </row>
@@ -8883,7 +9149,9 @@
       <c r="B463" s="40" t="n">
         <v>83</v>
       </c>
-      <c r="C463" s="84"/>
+      <c r="C463" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D463" s="13"/>
       <c r="E463" s="13"/>
     </row>
@@ -8891,7 +9159,9 @@
       <c r="B464" s="40" t="n">
         <v>84</v>
       </c>
-      <c r="C464" s="84"/>
+      <c r="C464" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D464" s="13"/>
       <c r="E464" s="13"/>
     </row>
@@ -8899,7 +9169,9 @@
       <c r="B465" s="40" t="n">
         <v>85</v>
       </c>
-      <c r="C465" s="84"/>
+      <c r="C465" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D465" s="13"/>
       <c r="E465" s="13"/>
     </row>
@@ -8907,7 +9179,9 @@
       <c r="B466" s="40" t="n">
         <v>86</v>
       </c>
-      <c r="C466" s="84"/>
+      <c r="C466" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D466" s="13"/>
       <c r="E466" s="13"/>
     </row>
@@ -8915,7 +9189,9 @@
       <c r="B467" s="40" t="n">
         <v>87</v>
       </c>
-      <c r="C467" s="84"/>
+      <c r="C467" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D467" s="13"/>
       <c r="E467" s="13"/>
     </row>
@@ -8923,7 +9199,9 @@
       <c r="B468" s="40" t="n">
         <v>88</v>
       </c>
-      <c r="C468" s="84"/>
+      <c r="C468" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D468" s="13"/>
       <c r="E468" s="13"/>
     </row>
@@ -8931,7 +9209,9 @@
       <c r="B469" s="40" t="n">
         <v>89</v>
       </c>
-      <c r="C469" s="84"/>
+      <c r="C469" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D469" s="13"/>
       <c r="E469" s="13"/>
     </row>
@@ -8939,7 +9219,9 @@
       <c r="B470" s="40" t="n">
         <v>90</v>
       </c>
-      <c r="C470" s="84"/>
+      <c r="C470" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D470" s="13"/>
       <c r="E470" s="13"/>
     </row>
@@ -8947,7 +9229,9 @@
       <c r="B471" s="40" t="n">
         <v>91</v>
       </c>
-      <c r="C471" s="84"/>
+      <c r="C471" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D471" s="13"/>
       <c r="E471" s="13"/>
     </row>
@@ -8955,7 +9239,9 @@
       <c r="B472" s="40" t="n">
         <v>92</v>
       </c>
-      <c r="C472" s="84"/>
+      <c r="C472" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D472" s="13"/>
       <c r="E472" s="13"/>
     </row>
@@ -8963,7 +9249,9 @@
       <c r="B473" s="40" t="n">
         <v>93</v>
       </c>
-      <c r="C473" s="84"/>
+      <c r="C473" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D473" s="13"/>
       <c r="E473" s="13"/>
     </row>
@@ -8971,7 +9259,9 @@
       <c r="B474" s="40" t="n">
         <v>94</v>
       </c>
-      <c r="C474" s="84"/>
+      <c r="C474" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D474" s="13"/>
       <c r="E474" s="13"/>
     </row>
@@ -8979,7 +9269,9 @@
       <c r="B475" s="40" t="n">
         <v>95</v>
       </c>
-      <c r="C475" s="84"/>
+      <c r="C475" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D475" s="13"/>
       <c r="E475" s="13"/>
     </row>
@@ -8987,7 +9279,9 @@
       <c r="B476" s="40" t="n">
         <v>96</v>
       </c>
-      <c r="C476" s="84"/>
+      <c r="C476" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D476" s="13"/>
       <c r="E476" s="13"/>
     </row>
@@ -8995,7 +9289,9 @@
       <c r="B477" s="40" t="n">
         <v>97</v>
       </c>
-      <c r="C477" s="84"/>
+      <c r="C477" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D477" s="13"/>
       <c r="E477" s="13" t="s">
         <v>170</v>
@@ -9005,11 +9301,13 @@
       <c r="B478" s="47" t="n">
         <v>98</v>
       </c>
-      <c r="C478" s="100"/>
+      <c r="C478" s="100" t="n">
+        <v>0</v>
+      </c>
       <c r="D478" s="13"/>
       <c r="E478" s="13" t="n">
         <f aca="false">SUM(C330:C478)</f>
-        <v>0</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input/RESULTS5-2A-CSE-0.861.1.xlsx
+++ b/input/RESULTS5-2A-CSE-0.861.1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="171">
   <si>
     <t xml:space="preserve">STANDARD 140 OUTPUT FORM - RESULTS    </t>
   </si>
@@ -2233,11 +2233,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -4990,19 +4990,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="106"/>
-      <c r="E178" s="68"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="106"/>
-      <c r="H178" s="107"/>
-      <c r="I178" s="68"/>
-      <c r="J178" s="106"/>
-      <c r="K178" s="108"/>
+      <c r="C178" s="105" t="n">
+        <v>-3.93067013428873</v>
+      </c>
+      <c r="D178" s="106" t="n">
+        <v>-46.22457</v>
+      </c>
+      <c r="E178" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" s="106" t="n">
+        <v>31</v>
+      </c>
+      <c r="G178" s="106" t="n">
+        <v>24</v>
+      </c>
+      <c r="H178" s="107" t="n">
+        <v>30.08121</v>
+      </c>
+      <c r="I178" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J178" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="K178" s="108" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="13" t="s">
